--- a/data/policy_survey_items.xlsx
+++ b/data/policy_survey_items.xlsx
@@ -1,268 +1,248 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinm\Dropbox\Myself\collaborators\cld-tech\research\AI_policy_LD\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF062DF-6379-4D01-A89B-CD5927D95850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t>survey_item</t>
-  </si>
-  <si>
-    <t>term_beta</t>
-  </si>
-  <si>
-    <t>AI-based English language programs should be integrated into schools to support students with English language learning needs.</t>
-  </si>
-  <si>
-    <t>student ( 0.047 ), teacher ( 0.037 ), el ( 0.027 ), program ( 0.024 ), use ( 0.021 ), school ( 0.021 ), base ( 0.018 ), ai ( 0.018 ), english ( 0.018 ), report ( 0.015 )</t>
-  </si>
-  <si>
-    <t>AI developers should provide educators with evidence-based feedback to support student learning effectively.</t>
-  </si>
-  <si>
-    <t>ai ( 0.027 ), student ( 0.027 ), educator ( 0.022 ), feedback ( 0.021 ), learn ( 0.017 ), developer ( 0.017 ), assessment ( 0.017 ), evidence ( 0.017 ), human ( 0.014 ), provide ( 0.014 )</t>
-  </si>
-  <si>
-    <t>AI models should include support for multiple question formats to better accommodate neurodiverse learners in their learning journey.</t>
-  </si>
-  <si>
-    <t>student ( 0.054 ), learn ( 0.029 ), ai ( 0.027 ), learner ( 0.022 ), model ( 0.02 ), neurodiverse ( 0.018 ), include ( 0.016 ), support ( 0.016 ), question ( 0.016 ), multiple ( 0.016 )</t>
-  </si>
-  <si>
-    <t>AI-based software should be used in schools to support student learning and address complaints effectively, as endorsed by the school principal.</t>
-  </si>
-  <si>
-    <t>student ( 0.089 ), school ( 0.04 ), software ( 0.037 ), use ( 0.023 ), base ( 0.021 ), principal ( 0.013 ), black ( 0.011 ), score ( 0.011 ), complaint ( 0.011 ), ai ( 0.01 )</t>
-  </si>
-  <si>
-    <t>Survey Item:
+    <t xml:space="preserve">topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survey_item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">term_beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-based English language programs should be integrated into schools to support students with English language learning needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student ( 0.047 ), teacher ( 0.037 ), el ( 0.027 ), program ( 0.024 ), use ( 0.021 ), school ( 0.021 ), base ( 0.018 ), ai ( 0.018 ), english ( 0.018 ), report ( 0.015 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI developers should provide educators with evidence-based feedback to support student learning effectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.027 ), student ( 0.027 ), educator ( 0.022 ), feedback ( 0.021 ), learn ( 0.017 ), developer ( 0.017 ), assessment ( 0.017 ), evidence ( 0.017 ), human ( 0.014 ), provide ( 0.014 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI models should include support for multiple question formats to better accommodate neurodiverse learners in their learning journey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student ( 0.054 ), learn ( 0.029 ), ai ( 0.027 ), learner ( 0.022 ), model ( 0.02 ), neurodiverse ( 0.018 ), include ( 0.016 ), support ( 0.016 ), question ( 0.016 ), multiple ( 0.016 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-based software should be used in schools to support student learning and address complaints effectively, as endorsed by the school principal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student ( 0.089 ), school ( 0.04 ), software ( 0.037 ), use ( 0.023 ), base ( 0.021 ), principal ( 0.013 ), black ( 0.011 ), score ( 0.011 ), complaint ( 0.011 ), ai ( 0.01 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey Item:
 Including principles of AI ethics in educational systems is crucial for respecting the rights of individuals with learning disabilities.</t>
   </si>
   <si>
-    <t>right ( 0.018 ), datum ( 0.017 ), use ( 0.017 ), include ( 0.015 ), ai ( 0.015 ), principle ( 0.014 ), community ( 0.014 ), individual ( 0.012 ), system ( 0.012 ), sensitive ( 0.012 )</t>
-  </si>
-  <si>
-    <t>Artificial intelligence initiatives developed by the Department of Defense shall play a crucial role in enhancing educational strategies for students with disabilities.</t>
-  </si>
-  <si>
-    <t>artificial_intelligence ( 0.063 ), center ( 0.046 ), defense ( 0.029 ), initiative ( 0.022 ), sec ( 0.019 ), description ( 0.019 ), strategy ( 0.019 ), develop ( 0.017 ), shall ( 0.017 ), department ( 0.014 )</t>
-  </si>
-  <si>
-    <t>AI simulations should be used to create specific scenarios that promote equity and inclusion for students with disabilities in law-related educational settings.</t>
-  </si>
-  <si>
-    <t>law ( 0.054 ), set ( 0.044 ), specific ( 0.033 ), work ( 0.028 ), equity ( 0.027 ), civil_right ( 0.027 ), simulate ( 0.026 ), student ( 0.026 ), include ( 0.022 ), base ( 0.021 )</t>
-  </si>
-  <si>
-    <t>AI developers should prioritize building trustworthy educational tools to support student learning and literacy in collaboration with teachers.</t>
-  </si>
-  <si>
-    <t>ai ( 0.058 ), student ( 0.026 ), literacy ( 0.024 ), education ( 0.021 ), teacher ( 0.018 ), well ( 0.018 ), developer ( 0.016 ), trust ( 0.013 ), learn ( 0.011 ), learning ( 0.01 )</t>
-  </si>
-  <si>
-    <t>AI-driven learning content should prioritize supporting students as individual learners to mitigate human bias in educational design.</t>
-  </si>
-  <si>
-    <t>learn ( 0.04 ), ai ( 0.036 ), support ( 0.018 ), content ( 0.018 ), student ( 0.018 ), learner ( 0.018 ), design ( 0.016 ), human ( 0.016 ), bias ( 0.014 ), people ( 0.013 )</t>
-  </si>
-  <si>
-    <t>AI resources should be included in school assessments to support the diverse population of students, based on evidence of their effectiveness.</t>
-  </si>
-  <si>
-    <t>ai ( 0.039 ), use ( 0.031 ), resource ( 0.023 ), school ( 0.023 ), student ( 0.02 ), evidence ( 0.019 ), include ( 0.013 ), assessment ( 0.012 ), population ( 0.01 ), work ( 0.01 )</t>
-  </si>
-  <si>
-    <t>AI software developers should prioritize ensuring accessibility features for people with disabilities to mitigate bias in image descriptions created by experts.</t>
-  </si>
-  <si>
-    <t>people ( 0.065 ), ai ( 0.048 ), disability ( 0.037 ), use ( 0.021 ), expert ( 0.021 ), bias ( 0.019 ), image ( 0.019 ), description ( 0.016 ), software ( 0.013 ), accessibility ( 0.013 )</t>
-  </si>
-  <si>
-    <t>AI models must be used in education to ensure equity for students with disabilities.</t>
-  </si>
-  <si>
-    <t>ai ( 0.047 ), use ( 0.023 ), model ( 0.022 ), need ( 0.017 ), student ( 0.015 ), must ( 0.014 ), equity ( 0.014 ), human ( 0.013 ), education ( 0.013 ), datum ( 0.012 )</t>
-  </si>
-  <si>
-    <t>AI should be utilized to provide personalized resources that cater to the diverse learning needs of students, including those with disabilities.</t>
-  </si>
-  <si>
-    <t>student ( 0.052 ), resource ( 0.048 ), well ( 0.038 ), learn ( 0.031 ), teacher ( 0.027 ), provide ( 0.026 ), need ( 0.022 ), inclusion ( 0.021 ), strength ( 0.021 ), ai ( 0.02 )</t>
-  </si>
-  <si>
-    <t>AI research must prioritize the privacy needs of people with disabilities when using technology.</t>
-  </si>
-  <si>
-    <t>ai ( 0.054 ), disability ( 0.043 ), people ( 0.033 ), use ( 0.023 ), research ( 0.01 ), need ( 0.01 ), human ( 0.01 ), privacy ( 0.01 ), technology ( 0.009 ), order ( 0.008 )</t>
-  </si>
-  <si>
-    <t>AI should be used as an administrative tool to enhance human-computer interaction loops in educational settings for the benefit of students with learning disabilities.</t>
-  </si>
-  <si>
-    <t>ai ( 0.051 ), teacher ( 0.028 ), student ( 0.027 ), human ( 0.018 ), interaction ( 0.016 ), loop ( 0.014 ), administrative ( 0.014 ), tool ( 0.012 ), use ( 0.012 ), computer ( 0.01 )</t>
-  </si>
-  <si>
-    <t>AI systems used in educational settings must include robust measures to protect the privacy of students with learning disabilities.</t>
-  </si>
-  <si>
-    <t>use ( 0.039 ), system ( 0.026 ), datum ( 0.026 ), include ( 0.024 ), human ( 0.017 ), impact ( 0.014 ), outcome ( 0.014 ), protect ( 0.014 ), possible ( 0.012 ), privacy ( 0.012 )</t>
-  </si>
-  <si>
-    <t>AI systems should be included in educational research programs to enhance the quality of instruction for students in higher education institutions.</t>
-  </si>
-  <si>
-    <t>education ( 0.069 ), research ( 0.044 ), high ( 0.032 ), artificial_intelligence_systems ( 0.031 ), include ( 0.025 ), relate ( 0.025 ), program ( 0.025 ), institution ( 0.025 ), tenure ( 0.025 ), field ( 0.019 )</t>
-  </si>
-  <si>
-    <t>AI should be used in educational products to mitigate risks and enhance learning for students seeking inclusive education.</t>
-  </si>
-  <si>
-    <t>ai ( 0.048 ), student ( 0.037 ), product ( 0.026 ), use ( 0.024 ), seek ( 0.015 ), mitigate ( 0.014 ), learn ( 0.014 ), education ( 0.014 ), risk ( 0.013 ), model ( 0.011 )</t>
-  </si>
-  <si>
-    <t>AI-based assistive technology tools should be provided to people with disabilities to enhance their user experience and access to relevant data.</t>
-  </si>
-  <si>
-    <t>ai ( 0.054 ), disability ( 0.037 ), people ( 0.029 ), use ( 0.02 ), user ( 0.02 ), whether ( 0.017 ), assistive_technology ( 0.016 ), tool ( 0.014 ), datum ( 0.014 ), provide ( 0.014 )</t>
-  </si>
-  <si>
-    <t>AI tools should be integrated into educational policies to support students with learning disabilities in their learning journey.</t>
-  </si>
-  <si>
-    <t>ai ( 0.054 ), educator ( 0.03 ), use ( 0.02 ), learn ( 0.02 ), policy ( 0.017 ), student ( 0.016 ), new ( 0.013 ), interest ( 0.013 ), tool ( 0.013 ), also ( 0.01 )</t>
-  </si>
-  <si>
-    <t>AI technology should prioritize user-friendly interfaces to enhance accessibility for students with visual impairments.</t>
-  </si>
-  <si>
-    <t>ai ( 0.079 ), use ( 0.03 ), user ( 0.023 ), expert ( 0.023 ), low ( 0.02 ), vision ( 0.02 ), image ( 0.02 ), blind ( 0.02 ), relate ( 0.016 ), human ( 0.016 )</t>
-  </si>
-  <si>
-    <t>AI systems used in educational settings should include measures to protect the sensitive data of students with disabilities.</t>
-  </si>
-  <si>
-    <t>datum ( 0.047 ), system ( 0.034 ), use ( 0.034 ), relate ( 0.022 ), include ( 0.02 ), student ( 0.019 ), sensitive ( 0.018 ), domain ( 0.016 ), potential ( 0.012 ), surveillance ( 0.012 )</t>
-  </si>
-  <si>
-    <t>AI developers must prioritize designing products that focus on student learning needs.</t>
-  </si>
-  <si>
-    <t>ai ( 0.023 ), student ( 0.022 ), also ( 0.018 ), design ( 0.016 ), learning ( 0.016 ), must ( 0.014 ), learn ( 0.014 ), product ( 0.014 ), focus ( 0.012 ), developer ( 0.012 )</t>
-  </si>
-  <si>
-    <t>Public housing laws should include specific provisions to ensure equal access for individuals with disabilities.</t>
-  </si>
-  <si>
-    <t>use ( 0.024 ), law ( 0.022 ), paragraph ( 0.02 ), public ( 0.015 ), act ( 0.015 ), federal ( 0.015 ), housing ( 0.015 ), section ( 0.013 ), shall ( 0.013 ), disability ( 0.013 )</t>
-  </si>
-  <si>
-    <t>AI-driven software programs should be provided to students with learning disabilities to enhance their access to educational materials.</t>
-  </si>
-  <si>
-    <t>student ( 0.08 ), ai ( 0.022 ), provide ( 0.02 ), program ( 0.02 ), base ( 0.018 ), application ( 0.016 ), software ( 0.015 ), allege ( 0.013 ), drive ( 0.013 ), ocr ( 0.013 )</t>
-  </si>
-  <si>
-    <t>AI-based language translation tools should be readily accessible to provide a wide range of support resources for students with diverse language capabilities.</t>
-  </si>
-  <si>
-    <t>support ( 0.075 ), language ( 0.056 ), resource ( 0.037 ), ai ( 0.037 ), capability ( 0.037 ), e.g ( 0.037 ), translation ( 0.037 ), range ( 0.019 ), output ( 0.019 ), well ( 0.019 )</t>
-  </si>
-  <si>
-    <t>AI should be utilized to create accessible documents that enhance reading experiences for students with learning disabilities.</t>
-  </si>
-  <si>
-    <t>w.a ( 0.042 ), i ( 0.031 ), d ( 0.029 ), use ( 0.022 ), student ( 0.022 ), document ( 0.019 ), read ( 0.013 ), ai ( 0.013 ), assignment ( 0.012 ), grade ( 0.012 )</t>
-  </si>
-  <si>
-    <t>AI developers should prioritize student privacy risks when creating educational technology tools for school use.</t>
-  </si>
-  <si>
-    <t>risk ( 0.044 ), student ( 0.029 ), ai ( 0.028 ), use ( 0.017 ), example ( 0.017 ), developer ( 0.017 ), know ( 0.017 ), privacy ( 0.014 ), school ( 0.014 ), edtech ( 0.014 )</t>
-  </si>
-  <si>
-    <t>AI-driven educational activities are essential to support the foundational development of students with learning disabilities.</t>
-  </si>
-  <si>
-    <t>education ( 0.038 ), activity ( 0.033 ), foundation ( 0.03 ), support ( 0.025 ), development ( 0.025 ), artificial_intelligence ( 0.025 ), research ( 0.023 ), relate ( 0.02 ), field ( 0.018 ), advance ( 0.018 )</t>
-  </si>
-  <si>
-    <t>AI systems should be ethically designed to assist people with disabilities in using image recognition technology effectively.</t>
-  </si>
-  <si>
-    <t>et ( 0.034 ), al ( 0.034 ), ai ( 0.029 ), people ( 0.024 ), disability ( 0.024 ), ai_systems ( 0.017 ), assistive ( 0.014 ), image ( 0.014 ), use ( 0.014 ), study ( 0.012 )</t>
-  </si>
-  <si>
-    <t>AI tools should be utilized in schools to enhance communication between students, parents, and educators for the benefit of students with learning disabilities.</t>
-  </si>
-  <si>
-    <t>school ( 0.039 ), student ( 0.035 ), ai ( 0.027 ), parent ( 0.019 ), ocr ( 0.019 ), use ( 0.018 ), investigation ( 0.017 ), tool ( 0.015 ), base ( 0.015 ), example ( 0.014 )</t>
-  </si>
-  <si>
-    <t>AI systems used by the federal government should include measures to mitigate risks and ensure ethical use of technology.</t>
-  </si>
-  <si>
-    <t>ai ( 0.042 ), use ( 0.024 ), risk ( 0.013 ), mean ( 0.011 ), system ( 0.01 ), technology ( 0.009 ), federal_government ( 0.009 ), term ( 0.009 ), include ( 0.009 ), administration ( 0.008 )</t>
-  </si>
-  <si>
-    <t>Students with disabilities should have access to technology in education to ensure their civil rights are upheld in public schools.</t>
-  </si>
-  <si>
-    <t>technology ( 0.05 ), education ( 0.033 ), student ( 0.033 ), students_with_disabilities ( 0.025 ), ensure ( 0.017 ), take ( 0.017 ), work ( 0.016 ), public ( 0.016 ), appropriate ( 0.016 ), civil_right ( 0.016 )</t>
-  </si>
-  <si>
-    <t>AI developers in education must prioritize the ethical principles and policies to build trust with students with learning disabilities.</t>
-  </si>
-  <si>
-    <t>ai ( 0.064 ), developer ( 0.028 ), education ( 0.02 ), trust ( 0.02 ), development ( 0.02 ), principle ( 0.016 ), policy ( 0.016 ), one ( 0.012 ), design ( 0.012 ), develop ( 0.012 )</t>
-  </si>
-  <si>
-    <t>Artificial intelligence systems shall be included in educational programs to support students with learning disabilities.</t>
-  </si>
-  <si>
-    <t>artificial_intelligence ( 0.043 ), term ( 0.018 ), shall ( 0.017 ), secretary ( 0.016 ), artificial_intelligence_systems ( 0.015 ), director ( 0.012 ), include ( 0.012 ), act ( 0.011 ), program ( 0.011 ), use ( 0.011 )</t>
+    <t xml:space="preserve">right ( 0.018 ), datum ( 0.017 ), use ( 0.017 ), include ( 0.015 ), ai ( 0.015 ), principle ( 0.014 ), community ( 0.014 ), individual ( 0.012 ), system ( 0.012 ), sensitive ( 0.012 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial intelligence initiatives developed by the Department of Defense shall play a crucial role in enhancing educational strategies for students with disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artificial_intelligence ( 0.063 ), center ( 0.046 ), defense ( 0.029 ), initiative ( 0.022 ), sec ( 0.019 ), description ( 0.019 ), strategy ( 0.019 ), develop ( 0.017 ), shall ( 0.017 ), department ( 0.014 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI simulations should be used to create specific scenarios that promote equity and inclusion for students with disabilities in law-related educational settings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">law ( 0.054 ), set ( 0.044 ), specific ( 0.033 ), work ( 0.028 ), equity ( 0.027 ), civil_right ( 0.027 ), simulate ( 0.026 ), student ( 0.026 ), include ( 0.022 ), base ( 0.021 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI developers should prioritize building trustworthy educational tools to support student learning and literacy in collaboration with teachers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.058 ), student ( 0.026 ), literacy ( 0.024 ), education ( 0.021 ), teacher ( 0.018 ), well ( 0.018 ), developer ( 0.016 ), trust ( 0.013 ), learn ( 0.011 ), learning ( 0.01 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-driven learning content should prioritize supporting students as individual learners to mitigate human bias in educational design.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learn ( 0.04 ), ai ( 0.036 ), support ( 0.018 ), content ( 0.018 ), student ( 0.018 ), learner ( 0.018 ), design ( 0.016 ), human ( 0.016 ), bias ( 0.014 ), people ( 0.013 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI resources should be included in school assessments to support the diverse population of students, based on evidence of their effectiveness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.039 ), use ( 0.031 ), resource ( 0.023 ), school ( 0.023 ), student ( 0.02 ), evidence ( 0.019 ), include ( 0.013 ), assessment ( 0.012 ), population ( 0.01 ), work ( 0.01 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI software developers should prioritize ensuring accessibility features for people with disabilities to mitigate bias in image descriptions created by experts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">people ( 0.065 ), ai ( 0.048 ), disability ( 0.037 ), use ( 0.021 ), expert ( 0.021 ), bias ( 0.019 ), image ( 0.019 ), description ( 0.016 ), software ( 0.013 ), accessibility ( 0.013 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI models must be used in education to ensure equity for students with disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.047 ), use ( 0.023 ), model ( 0.022 ), need ( 0.017 ), student ( 0.015 ), must ( 0.014 ), equity ( 0.014 ), human ( 0.013 ), education ( 0.013 ), datum ( 0.012 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI should be utilized to provide personalized resources that cater to the diverse learning needs of students, including those with disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student ( 0.052 ), resource ( 0.048 ), well ( 0.038 ), learn ( 0.031 ), teacher ( 0.027 ), provide ( 0.026 ), need ( 0.022 ), inclusion ( 0.021 ), strength ( 0.021 ), ai ( 0.02 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI research must prioritize the privacy needs of people with disabilities when using technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.054 ), disability ( 0.043 ), people ( 0.033 ), use ( 0.023 ), research ( 0.01 ), need ( 0.01 ), human ( 0.01 ), privacy ( 0.01 ), technology ( 0.009 ), order ( 0.008 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI should be used as an administrative tool to enhance human-computer interaction loops in educational settings for the benefit of students with learning disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.051 ), teacher ( 0.028 ), student ( 0.027 ), human ( 0.018 ), interaction ( 0.016 ), loop ( 0.014 ), administrative ( 0.014 ), tool ( 0.012 ), use ( 0.012 ), computer ( 0.01 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI systems used in educational settings must include robust measures to protect the privacy of students with learning disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use ( 0.039 ), system ( 0.026 ), datum ( 0.026 ), include ( 0.024 ), human ( 0.017 ), impact ( 0.014 ), outcome ( 0.014 ), protect ( 0.014 ), possible ( 0.012 ), privacy ( 0.012 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI systems should be included in educational research programs to enhance the quality of instruction for students in higher education institutions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education ( 0.069 ), research ( 0.044 ), high ( 0.032 ), artificial_intelligence_systems ( 0.031 ), include ( 0.025 ), relate ( 0.025 ), program ( 0.025 ), institution ( 0.025 ), tenure ( 0.025 ), field ( 0.019 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI should be used in educational products to mitigate risks and enhance learning for students seeking inclusive education.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.048 ), student ( 0.037 ), product ( 0.026 ), use ( 0.024 ), seek ( 0.015 ), mitigate ( 0.014 ), learn ( 0.014 ), education ( 0.014 ), risk ( 0.013 ), model ( 0.011 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-based assistive technology tools should be provided to people with disabilities to enhance their user experience and access to relevant data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.054 ), disability ( 0.037 ), people ( 0.029 ), use ( 0.02 ), user ( 0.02 ), whether ( 0.017 ), assistive_technology ( 0.016 ), tool ( 0.014 ), datum ( 0.014 ), provide ( 0.014 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI tools should be integrated into educational policies to support students with learning disabilities in their learning journey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.054 ), educator ( 0.03 ), use ( 0.02 ), learn ( 0.02 ), policy ( 0.017 ), student ( 0.016 ), new ( 0.013 ), interest ( 0.013 ), tool ( 0.013 ), also ( 0.01 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI technology should prioritize user-friendly interfaces to enhance accessibility for students with visual impairments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.079 ), use ( 0.03 ), user ( 0.023 ), expert ( 0.023 ), low ( 0.02 ), vision ( 0.02 ), image ( 0.02 ), blind ( 0.02 ), relate ( 0.016 ), human ( 0.016 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI systems used in educational settings should include measures to protect the sensitive data of students with disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datum ( 0.047 ), system ( 0.034 ), use ( 0.034 ), relate ( 0.022 ), include ( 0.02 ), student ( 0.019 ), sensitive ( 0.018 ), domain ( 0.016 ), potential ( 0.012 ), surveillance ( 0.012 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI developers must prioritize designing products that focus on student learning needs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.023 ), student ( 0.022 ), also ( 0.018 ), design ( 0.016 ), learning ( 0.016 ), must ( 0.014 ), learn ( 0.014 ), product ( 0.014 ), focus ( 0.012 ), developer ( 0.012 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public housing laws should include specific provisions to ensure equal access for individuals with disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use ( 0.024 ), law ( 0.022 ), paragraph ( 0.02 ), public ( 0.015 ), act ( 0.015 ), federal ( 0.015 ), housing ( 0.015 ), section ( 0.013 ), shall ( 0.013 ), disability ( 0.013 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-driven software programs should be provided to students with learning disabilities to enhance their access to educational materials.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student ( 0.08 ), ai ( 0.022 ), provide ( 0.02 ), program ( 0.02 ), base ( 0.018 ), application ( 0.016 ), software ( 0.015 ), allege ( 0.013 ), drive ( 0.013 ), ocr ( 0.013 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-based language translation tools should be readily accessible to provide a wide range of support resources for students with diverse language capabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">support ( 0.075 ), language ( 0.056 ), resource ( 0.037 ), ai ( 0.037 ), capability ( 0.037 ), e.g ( 0.037 ), translation ( 0.037 ), range ( 0.019 ), output ( 0.019 ), well ( 0.019 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI should be utilized to create accessible documents that enhance reading experiences for students with learning disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w.a ( 0.042 ), i ( 0.031 ), d ( 0.029 ), use ( 0.022 ), student ( 0.022 ), document ( 0.019 ), read ( 0.013 ), ai ( 0.013 ), assignment ( 0.012 ), grade ( 0.012 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI developers should prioritize student privacy risks when creating educational technology tools for school use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">risk ( 0.044 ), student ( 0.029 ), ai ( 0.028 ), use ( 0.017 ), example ( 0.017 ), developer ( 0.017 ), know ( 0.017 ), privacy ( 0.014 ), school ( 0.014 ), edtech ( 0.014 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI-driven educational activities are essential to support the foundational development of students with learning disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education ( 0.038 ), activity ( 0.033 ), foundation ( 0.03 ), support ( 0.025 ), development ( 0.025 ), artificial_intelligence ( 0.025 ), research ( 0.023 ), relate ( 0.02 ), field ( 0.018 ), advance ( 0.018 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI systems should be ethically designed to assist people with disabilities in using image recognition technology effectively.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">et ( 0.034 ), al ( 0.034 ), ai ( 0.029 ), people ( 0.024 ), disability ( 0.024 ), ai_systems ( 0.017 ), assistive ( 0.014 ), image ( 0.014 ), use ( 0.014 ), study ( 0.012 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI tools should be utilized in schools to enhance communication between students, parents, and educators for the benefit of students with learning disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school ( 0.039 ), student ( 0.035 ), ai ( 0.027 ), parent ( 0.019 ), ocr ( 0.019 ), use ( 0.018 ), investigation ( 0.017 ), tool ( 0.015 ), base ( 0.015 ), example ( 0.014 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI systems used by the federal government should include measures to mitigate risks and ensure ethical use of technology.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.042 ), use ( 0.024 ), risk ( 0.013 ), mean ( 0.011 ), system ( 0.01 ), technology ( 0.009 ), federal_government ( 0.009 ), term ( 0.009 ), include ( 0.009 ), administration ( 0.008 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students with disabilities should have access to technology in education to ensure their civil rights are upheld in public schools.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technology ( 0.05 ), education ( 0.033 ), student ( 0.033 ), students_with_disabilities ( 0.025 ), ensure ( 0.017 ), take ( 0.017 ), work ( 0.016 ), public ( 0.016 ), appropriate ( 0.016 ), civil_right ( 0.016 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI developers in education must prioritize the ethical principles and policies to build trust with students with learning disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ai ( 0.064 ), developer ( 0.028 ), education ( 0.02 ), trust ( 0.02 ), development ( 0.02 ), principle ( 0.016 ), policy ( 0.016 ), one ( 0.012 ), design ( 0.012 ), develop ( 0.012 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial intelligence systems shall be included in educational programs to support students with learning disabilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">artificial_intelligence ( 0.043 ), term ( 0.018 ), shall ( 0.017 ), secretary ( 0.016 ), artificial_intelligence_systems ( 0.015 ), director ( 0.012 ), include ( 0.012 ), act ( 0.011 ), program ( 0.011 ), use ( 0.011 )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -284,59 +264,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -618,419 +556,411 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="69" style="2" customWidth="1"/>
-    <col min="3" max="3" width="113" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+    <row r="28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+    <row r="29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+    <row r="30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+    <row r="31">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+    <row r="32">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="33">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+    <row r="34">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="35">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+    <row r="36">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>